--- a/tracker/SRGBU SM_NIM config rules.xlsx
+++ b/tracker/SRGBU SM_NIM config rules.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangken/py/dfpm_tools/tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B152DD0D-9164-824B-A8FA-FB8F613317FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D1FD61-185C-8945-8054-3BDADBB46876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27860" windowHeight="17540" activeTab="2" xr2:uid="{7061EAA9-EB17-5D41-8FF9-094ABE068B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="SRG_ISR4x00(Rachel)" sheetId="2" r:id="rId1"/>
     <sheet name="SM_NIM" sheetId="1" r:id="rId2"/>
-    <sheet name="APPLICABLE_ORG" sheetId="4" r:id="rId3"/>
+    <sheet name="APPLICABLE_SCOPE" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -161,7 +161,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -226,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="143">
   <si>
     <t>TYPE</t>
   </si>
@@ -764,20 +764,26 @@
     <t>FOC;FDO</t>
   </si>
   <si>
-    <t>APPLICABLE_ORG</t>
-  </si>
-  <si>
     <t>ADAPTER</t>
   </si>
   <si>
-    <t>use ';' to separate if multiple orgs</t>
+    <t>ORG</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>ISR4321;ISR4331;ISR4351;ISR4361;VG450</t>
+  </si>
+  <si>
+    <t>use ';' to separate if multiple values. Leave blank if no limitation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -937,6 +943,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1213,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1353,28 +1366,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1694,7 +1710,7 @@
   <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1947,18 +1963,18 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73" t="s">
+      <c r="E9" s="69"/>
+      <c r="F9" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="72" t="s">
+      <c r="G9" s="70"/>
+      <c r="H9" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="72"/>
+      <c r="I9" s="69"/>
       <c r="J9" s="52"/>
       <c r="K9" s="53" t="s">
         <v>114</v>
@@ -1971,10 +1987,10 @@
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="68"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="6" t="s">
         <v>32</v>
       </c>
@@ -1989,10 +2005,10 @@
       <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="68"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="6" t="s">
         <v>33</v>
       </c>
@@ -2007,10 +2023,10 @@
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="68"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="6" t="s">
         <v>34</v>
       </c>
@@ -2022,10 +2038,10 @@
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="7" t="s">
         <v>35</v>
       </c>
@@ -2037,10 +2053,10 @@
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="68"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="6" t="s">
         <v>36</v>
       </c>
@@ -2050,10 +2066,10 @@
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="68"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="6" t="s">
         <v>37</v>
       </c>
@@ -2063,10 +2079,10 @@
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="69"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="6" t="s">
         <v>38</v>
       </c>
@@ -2330,14 +2346,14 @@
       <c r="C62" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="G62" s="70" t="s">
+      <c r="G62" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="H62" s="70"/>
-      <c r="I62" s="71" t="s">
+      <c r="H62" s="74"/>
+      <c r="I62" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="J62" s="71"/>
+      <c r="J62" s="68"/>
     </row>
     <row r="63" spans="3:10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
@@ -2496,10 +2512,10 @@
       </c>
     </row>
     <row r="71" spans="4:11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="G71" s="67" t="s">
+      <c r="G71" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="H71" s="67"/>
+      <c r="H71" s="72"/>
     </row>
     <row r="72" spans="4:11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="G72" s="62" t="s">
@@ -2568,6 +2584,12 @@
     <row r="80" spans="4:11" customFormat="1" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="G62:H62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
@@ -2575,12 +2597,6 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="G62:H62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2592,10 +2608,10 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2623,7 +2639,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
@@ -3487,33 +3503,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ECA9E3-5497-5843-B57B-5D01904A178B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="67" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>140</v>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
